--- a/data/GeneKB01.xlsx
+++ b/data/GeneKB01.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Gene" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Unknown Myeloid" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="AML" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="MDS" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="MPN" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="General Solid" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="LungSCC" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="LungNSC" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Melanoma" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Colorectal" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="GIST" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Fibromatosis" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Thyroid" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Glioma" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="LHC" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="GeneDiseaseTemplate" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Gene" sheetId="1" r:id="rId1"/>
+    <sheet name="Unknown Myeloid" sheetId="2" r:id="rId2"/>
+    <sheet name="AML" sheetId="3" r:id="rId3"/>
+    <sheet name="MDS" sheetId="4" r:id="rId4"/>
+    <sheet name="MPN" sheetId="5" r:id="rId5"/>
+    <sheet name="General Solid" sheetId="6" r:id="rId6"/>
+    <sheet name="LungSCC" sheetId="7" r:id="rId7"/>
+    <sheet name="LungNSC" sheetId="8" r:id="rId8"/>
+    <sheet name="Melanoma" sheetId="9" r:id="rId9"/>
+    <sheet name="Colorectal" sheetId="10" r:id="rId10"/>
+    <sheet name="GIST" sheetId="11" r:id="rId11"/>
+    <sheet name="Fibromatosis" sheetId="12" r:id="rId12"/>
+    <sheet name="Thyroid" sheetId="13" r:id="rId13"/>
+    <sheet name="Glioma" sheetId="14" r:id="rId14"/>
+    <sheet name="LHC" sheetId="15" r:id="rId15"/>
+    <sheet name="GeneDiseaseTemplate" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -37,711 +36,693 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="226">
   <si>
-    <t xml:space="preserve">Panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneSymbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProteinSymbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProteinClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProteinFunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CancerStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abl1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Receptor Tyrosine Kinase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proto-oncogene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akt1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serine-threonine protein kinase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">receptor tyrosine kinase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">both</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Braf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cdh1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDKN2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16 and p14ARF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSF1R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Csf1r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTNNB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ctnnb1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egfr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERBB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erbb2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERBB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erbb4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ezh2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FBXW7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fbxw7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGFR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fgfr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGFR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fgfr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGFR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fgfr3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flt3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member of the platelet-derived growth factor receptor subfamily of receptor tyrosine kinases.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNA11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gna11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gnaq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gnas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNF1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hnf1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idh1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idh2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jak2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAK3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jak3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kdr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Met</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mlh1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTCH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notch1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Npm1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a multifunctional protein involved in ribosome biogenesis that regulates the ARF/p53 pathway and enhances Myc oncogenic activities (PMIDs: 16794633, 19652540, 21689627, 22631075)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDGFRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pdgfra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIK3CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pik3ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTPN11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ptpn11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rb1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMAD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smad4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMARCB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smarcb1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Src</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STK11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stk11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tp53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vhl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myeloid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASXL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asxl1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bcor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCOR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bcor1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBLB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cblb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEBPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cebpa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcription factor regulating cell proliferation and differentiation of myeloid progenitors.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSF3R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Csf3r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNMT3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dnmt3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA methyltransferase that has both an oncogenic and tumor suppressor role reported (PMIDs: 21887466, 16870044, 21351083, 17890317, 22011581, 23031157). DNMT3A mutations often result in altered DNA methylation patterns as opposed to globally increased or decreased methylation (PMIDs: 24699305, 25469209, 25416277).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETV6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etv6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GATA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gata1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GATA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gata2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jak1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDM6A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kdm6a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMT2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kmt2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mek1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYD88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myd88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phf6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAD21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rad21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUNX1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runx1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha subunit of heterodimeric transcription factor Core Binding Factor (CBF) that binds to the core element of many enhancers and promoters and is involved in normal hematopoiesis. RUNX1 is a frequent site of translocation and mutation in myeloid cancers and the Runx1 protein functions as a tumor suppressor in this context (PMIDs: 12555067, 22102704).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SETBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setbp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF3B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sf3b1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMC1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smc1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smc3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRSF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srsf2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAG2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stag2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TET2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tet2</t>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>GeneSymbol</t>
+  </si>
+  <si>
+    <t>ProteinSymbol</t>
+  </si>
+  <si>
+    <t>ProteinClass</t>
+  </si>
+  <si>
+    <t>ProteinFunction</t>
+  </si>
+  <si>
+    <t>CancerStatus</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>ABL1</t>
+  </si>
+  <si>
+    <t>Abl1</t>
+  </si>
+  <si>
+    <t>Non-Receptor Tyrosine Kinase</t>
+  </si>
+  <si>
+    <t>proto-oncogene</t>
+  </si>
+  <si>
+    <t>AKT1</t>
+  </si>
+  <si>
+    <t>Akt1</t>
+  </si>
+  <si>
+    <t>serine-threonine protein kinase</t>
+  </si>
+  <si>
+    <t>ALK</t>
+  </si>
+  <si>
+    <t>Alk</t>
+  </si>
+  <si>
+    <t>receptor tyrosine kinase</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>Apc</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>Atm</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>BRAF</t>
+  </si>
+  <si>
+    <t>Braf</t>
+  </si>
+  <si>
+    <t>CDH1</t>
+  </si>
+  <si>
+    <t>Cdh1</t>
+  </si>
+  <si>
+    <t>CDKN2A</t>
+  </si>
+  <si>
+    <t>p16 and p14ARF</t>
+  </si>
+  <si>
+    <t>CSF1R</t>
+  </si>
+  <si>
+    <t>Csf1r</t>
+  </si>
+  <si>
+    <t>CTNNB1</t>
+  </si>
+  <si>
+    <t>Ctnnb1</t>
+  </si>
+  <si>
+    <t>EGFR</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
+    <t>ERBB2</t>
+  </si>
+  <si>
+    <t>Erbb2</t>
+  </si>
+  <si>
+    <t>ERBB4</t>
+  </si>
+  <si>
+    <t>Erbb4</t>
+  </si>
+  <si>
+    <t>EZH2</t>
+  </si>
+  <si>
+    <t>Ezh2</t>
+  </si>
+  <si>
+    <t>FBXW7</t>
+  </si>
+  <si>
+    <t>Fbxw7</t>
+  </si>
+  <si>
+    <t>FGFR1</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
+    <t>FGFR2</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
+    <t>FGFR3</t>
+  </si>
+  <si>
+    <t>Fgfr3</t>
+  </si>
+  <si>
+    <t>FLT3</t>
+  </si>
+  <si>
+    <t>Flt3</t>
+  </si>
+  <si>
+    <t>member of the platelet-derived growth factor receptor subfamily of receptor tyrosine kinases.</t>
+  </si>
+  <si>
+    <t>GNA11</t>
+  </si>
+  <si>
+    <t>Gna11</t>
+  </si>
+  <si>
+    <t>GNAQ</t>
+  </si>
+  <si>
+    <t>Gnaq</t>
+  </si>
+  <si>
+    <t>GNAS</t>
+  </si>
+  <si>
+    <t>Gnas</t>
+  </si>
+  <si>
+    <t>HNF1A</t>
+  </si>
+  <si>
+    <t>Hnf1a</t>
+  </si>
+  <si>
+    <t>HRAS</t>
+  </si>
+  <si>
+    <t>Hras</t>
+  </si>
+  <si>
+    <t>IDH1</t>
+  </si>
+  <si>
+    <t>Idh1</t>
+  </si>
+  <si>
+    <t>IDH2</t>
+  </si>
+  <si>
+    <t>Idh2</t>
+  </si>
+  <si>
+    <t>JAK2</t>
+  </si>
+  <si>
+    <t>Jak2</t>
+  </si>
+  <si>
+    <t>JAK3</t>
+  </si>
+  <si>
+    <t>Jak3</t>
+  </si>
+  <si>
+    <t>KDR</t>
+  </si>
+  <si>
+    <t>Kdr</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>KRAS</t>
+  </si>
+  <si>
+    <t>Kras</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>MLH1</t>
+  </si>
+  <si>
+    <t>Mlh1</t>
+  </si>
+  <si>
+    <t>MPL</t>
+  </si>
+  <si>
+    <t>Mpl</t>
+  </si>
+  <si>
+    <t>NOTCH1</t>
+  </si>
+  <si>
+    <t>Notch1</t>
+  </si>
+  <si>
+    <t>NPM1</t>
+  </si>
+  <si>
+    <t>Npm1</t>
+  </si>
+  <si>
+    <t>a multifunctional protein involved in ribosome biogenesis that regulates the ARF/p53 pathway and enhances Myc oncogenic activities (PMIDs: 16794633, 19652540, 21689627, 22631075)</t>
+  </si>
+  <si>
+    <t>NRAS</t>
+  </si>
+  <si>
+    <t>Nras</t>
+  </si>
+  <si>
+    <t>PDGFRA</t>
+  </si>
+  <si>
+    <t>Pdgfra</t>
+  </si>
+  <si>
+    <t>PIK3CA</t>
+  </si>
+  <si>
+    <t>Pik3ca</t>
+  </si>
+  <si>
+    <t>PTEN</t>
+  </si>
+  <si>
+    <t>Pten</t>
+  </si>
+  <si>
+    <t>PTPN11</t>
+  </si>
+  <si>
+    <t>Ptpn11</t>
+  </si>
+  <si>
+    <t>RB1</t>
+  </si>
+  <si>
+    <t>Rb1</t>
+  </si>
+  <si>
+    <t>RET</t>
+  </si>
+  <si>
+    <t>Ret</t>
+  </si>
+  <si>
+    <t>SMAD4</t>
+  </si>
+  <si>
+    <t>Smad4</t>
+  </si>
+  <si>
+    <t>SMARCB1</t>
+  </si>
+  <si>
+    <t>Smarcb1</t>
+  </si>
+  <si>
+    <t>SMO</t>
+  </si>
+  <si>
+    <t>Smo</t>
+  </si>
+  <si>
+    <t>SRC</t>
+  </si>
+  <si>
+    <t>Src</t>
+  </si>
+  <si>
+    <t>STK11</t>
+  </si>
+  <si>
+    <t>Stk11</t>
+  </si>
+  <si>
+    <t>TP53</t>
+  </si>
+  <si>
+    <t>Tp53</t>
+  </si>
+  <si>
+    <t>VHL</t>
+  </si>
+  <si>
+    <t>Vhl</t>
+  </si>
+  <si>
+    <t>myeloid</t>
+  </si>
+  <si>
+    <t>ASXL1</t>
+  </si>
+  <si>
+    <t>Asxl1</t>
+  </si>
+  <si>
+    <t>BCOR</t>
+  </si>
+  <si>
+    <t>Bcor</t>
+  </si>
+  <si>
+    <t>BCOR1</t>
+  </si>
+  <si>
+    <t>Bcor1</t>
+  </si>
+  <si>
+    <t>CALR</t>
+  </si>
+  <si>
+    <t>Calr</t>
+  </si>
+  <si>
+    <t>CBL</t>
+  </si>
+  <si>
+    <t>Cbl</t>
+  </si>
+  <si>
+    <t>CBLB</t>
+  </si>
+  <si>
+    <t>Cblb</t>
+  </si>
+  <si>
+    <t>CEBPA</t>
+  </si>
+  <si>
+    <t>Cebpa</t>
+  </si>
+  <si>
+    <t>Transcription factor regulating cell proliferation and differentiation of myeloid progenitors.</t>
+  </si>
+  <si>
+    <t>CSF3R</t>
+  </si>
+  <si>
+    <t>Csf3r</t>
+  </si>
+  <si>
+    <t>DNMT3A</t>
+  </si>
+  <si>
+    <t>Dnmt3a</t>
+  </si>
+  <si>
+    <t>DNA methyltransferase that has both an oncogenic and tumor suppressor role reported (PMIDs: 21887466, 16870044, 21351083, 17890317, 22011581, 23031157). DNMT3A mutations often result in altered DNA methylation patterns as opposed to globally increased or decreased methylation (PMIDs: 24699305, 25469209, 25416277).</t>
+  </si>
+  <si>
+    <t>ETV6</t>
+  </si>
+  <si>
+    <t>Etv6</t>
+  </si>
+  <si>
+    <t>GATA1</t>
+  </si>
+  <si>
+    <t>Gata1</t>
+  </si>
+  <si>
+    <t>GATA2</t>
+  </si>
+  <si>
+    <t>Gata2</t>
+  </si>
+  <si>
+    <t>JAK1</t>
+  </si>
+  <si>
+    <t>Jak1</t>
+  </si>
+  <si>
+    <t>KDM6A</t>
+  </si>
+  <si>
+    <t>Kdm6a</t>
+  </si>
+  <si>
+    <t>KMT2A</t>
+  </si>
+  <si>
+    <t>Kmt2a</t>
+  </si>
+  <si>
+    <t>MEK1</t>
+  </si>
+  <si>
+    <t>Mek1</t>
+  </si>
+  <si>
+    <t>MYD88</t>
+  </si>
+  <si>
+    <t>Myd88</t>
+  </si>
+  <si>
+    <t>PHF6</t>
+  </si>
+  <si>
+    <t>Phf6</t>
+  </si>
+  <si>
+    <t>PML</t>
+  </si>
+  <si>
+    <t>Pml</t>
+  </si>
+  <si>
+    <t>RAD21</t>
+  </si>
+  <si>
+    <t>Rad21</t>
+  </si>
+  <si>
+    <t>RUNX1</t>
+  </si>
+  <si>
+    <t>Runx1</t>
+  </si>
+  <si>
+    <t>alpha subunit of heterodimeric transcription factor Core Binding Factor (CBF) that binds to the core element of many enhancers and promoters and is involved in normal hematopoiesis. RUNX1 is a frequent site of translocation and mutation in myeloid cancers and the Runx1 protein functions as a tumor suppressor in this context (PMIDs: 12555067, 22102704).</t>
+  </si>
+  <si>
+    <t>SETBP1</t>
+  </si>
+  <si>
+    <t>Setbp1</t>
+  </si>
+  <si>
+    <t>SF3B1</t>
+  </si>
+  <si>
+    <t>Sf3b1</t>
+  </si>
+  <si>
+    <t>SMC1A</t>
+  </si>
+  <si>
+    <t>Smc1a</t>
+  </si>
+  <si>
+    <t>SMC3</t>
+  </si>
+  <si>
+    <t>Smc3</t>
+  </si>
+  <si>
+    <t>SRSF2</t>
+  </si>
+  <si>
+    <t>Srsf2</t>
+  </si>
+  <si>
+    <t>STAG2</t>
+  </si>
+  <si>
+    <t>Stag2</t>
+  </si>
+  <si>
+    <t>TET2</t>
+  </si>
+  <si>
+    <t>Tet2</t>
   </si>
   <si>
     <t xml:space="preserve">a tumor suppressor that functions to create modified nucleotide precursors to methylated DNA (PMIDs: 22240200, 19372255, 20639862). </t>
   </si>
   <si>
-    <t xml:space="preserve">U2AF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2af1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2 Small Nuclear Ribonucleoprotein (snRNP) Auxiliary Factor 35kDa subunit (U2AF35), which is part of a complex involved in spliceosome assembly and pre-mRNA splicing (PMIDs: 22158538, 15231733, 21041408). Both activating and inactivating alterations in U2AF1 have been shown to result in defective RNA splicing and exon skipping (PMIDs: 21753750, 21288883, 25267526, 24498085).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wt1</t>
+    <t>U2AF1</t>
+  </si>
+  <si>
+    <t>U2af1</t>
+  </si>
+  <si>
+    <t>U2 Small Nuclear Ribonucleoprotein (snRNP) Auxiliary Factor 35kDa subunit (U2AF35), which is part of a complex involved in spliceosome assembly and pre-mRNA splicing (PMIDs: 22158538, 15231733, 21041408). Both activating and inactivating alterations in U2AF1 have been shown to result in defective RNA splicing and exon skipping (PMIDs: 21753750, 21288883, 25267526, 24498085).</t>
+  </si>
+  <si>
+    <t>WT1</t>
+  </si>
+  <si>
+    <t>Wt1</t>
   </si>
   <si>
     <t xml:space="preserve">transcription factor Wilms tumor 1 protein (Wt1) that reportedly displays both tumor suppressive and tumorigenic properties (PMIDs: 21248786, 20395243). </t>
   </si>
   <si>
-    <t xml:space="preserve">ZRSR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zrsr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEBPA mutations are found in 7-13% of AML samples, including 3-6% of cases with single or monoallelic mutation and 4% of cases double or biallelic mutations  (PMIDs: 24056881, 20439648, 18450602, 20038735).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bi-allelic mutations of CEBPA, with one allele harboring an N-terminal mutation and the other allele containing a C-terminal mutation, synergistically drive AML formation in preclinical studies (PMIDs: 11242107, 19878871, 22150310, 18394553). CEBPA mutation has been associated with improved outcome in AML patients, including cytogenetically normal (CN)-AML patients (PMIDs:24801015, 18450602, 22417203). In particular bi-allelic or double CEBPA mutations were associated with better prognosis as compared to a single CEBPA mutation (PMIDs: 25227715, 25400766,  20038735, 20439648).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">According to the 2016 WHO classification of myeloid neoplasms and acute leukemia, the presence of biallelic CEBPA mutations is diagnostic of a specific subtype of AML with recurrent genomic abnormalities (PMID: 27069254).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are currently no therapies directed toward CEBPA inactivating mutation or loss. Loss of functional C/EBPalpha protein may lead to decreased inhibition of Cdk2 and Cdk4; therefore, Cdk inhibitors may be of use in tumors with inactivating CEBPA mutations (PMID: 11684017). In the case of this uncharacterized variant, the relevance of any available therapeutic approaches is unknown.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNMT3A mutation is an early event in leukemogenesis, identified in hematopoietic stem cell populations in individuals with AML (PMIDs: 24522528, 26118500, 25721756, 25469209) and reported in 23% of all AML samples from patients across cytogenetic risk groups (PMID: 22417203).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNMT3A mutations in AML reportedly associated with poor prognosis, including shorter overall survival, relapse-free survival, and event-free survival (PMIDs:21067377, 22291079, 23962568, 25592687, 25281355, 25172541, 24936645, 24699305, 27149454).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA methyltransferase (DNMT) inhibitors have been reported to be effective in AML and MDS patients with DNMT3A missense mutations at R882 (PMIDs:22124213, 24138309, 24045501). DNMT inhibitors, including the agents azacitidine (Vidaza) and decitabine (Dacogen), have been FDA approved in myelodysplastic syndrome, and may offer therapeutic strategies in patients with certain mutations in DNMT3A (PMIDs: 22124213, 24699305). Other DNMT inhibitors are also in preclinical and clinical development (25567350, 24908436, 26220519).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNMT3A mutation has been associated with progression from myelodysplastic syndrome (MDS) to AML; preclinical studies have reported that Loss of DNMT3A, in combination with either Ras activation or FLT3-ITD alteration, leads to the development of AML-like disease in mice (PMIDs:25801914, 21415852, 27016502).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLT3-ITD mutations reportedly are the most common alteration in AML (20-35% of cases) occurring more frequently in AML with a normal karyotype (PMIDs: 26234722, 25912052, 12036858, 17965322, 16266897, 12400596).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLT3-ITD mutations in AML have been associated with poor prognosis and an increased risk of relapse following allogeneic hematopoietic stem cell transplantation (allo-HSCT) (PMIDs: 24801015, 26234722, 26191952, 25912052, 21242187).</t>
+    <t>ZRSR2</t>
+  </si>
+  <si>
+    <t>Zrsr2</t>
+  </si>
+  <si>
+    <t>CEBPA mutations are found in 7-13% of AML samples, including 3-6% of cases with single or monoallelic mutation and 4% of cases double or biallelic mutations  (PMIDs: 24056881, 20439648, 18450602, 20038735).</t>
+  </si>
+  <si>
+    <t>Bi-allelic mutations of CEBPA, with one allele harboring an N-terminal mutation and the other allele containing a C-terminal mutation, synergistically drive AML formation in preclinical studies (PMIDs: 11242107, 19878871, 22150310, 18394553). CEBPA mutation has been associated with improved outcome in AML patients, including cytogenetically normal (CN)-AML patients (PMIDs:24801015, 18450602, 22417203). In particular bi-allelic or double CEBPA mutations were associated with better prognosis as compared to a single CEBPA mutation (PMIDs: 25227715, 25400766,  20038735, 20439648).</t>
+  </si>
+  <si>
+    <t>According to the 2016 WHO classification of myeloid neoplasms and acute leukemia, the presence of biallelic CEBPA mutations is diagnostic of a specific subtype of AML with recurrent genomic abnormalities (PMID: 27069254).</t>
+  </si>
+  <si>
+    <t>There are currently no therapies directed toward CEBPA inactivating mutation or loss. Loss of functional C/EBPalpha protein may lead to decreased inhibition of Cdk2 and Cdk4; therefore, Cdk inhibitors may be of use in tumors with inactivating CEBPA mutations (PMID: 11684017). In the case of this uncharacterized variant, the relevance of any available therapeutic approaches is unknown.</t>
+  </si>
+  <si>
+    <t>DNMT3A mutation is an early event in leukemogenesis, identified in hematopoietic stem cell populations in individuals with AML (PMIDs: 24522528, 26118500, 25721756, 25469209) and reported in 23% of all AML samples from patients across cytogenetic risk groups (PMID: 22417203).</t>
+  </si>
+  <si>
+    <t>DNMT3A mutations in AML reportedly associated with poor prognosis, including shorter overall survival, relapse-free survival, and event-free survival (PMIDs:21067377, 22291079, 23962568, 25592687, 25281355, 25172541, 24936645, 24699305, 27149454).</t>
+  </si>
+  <si>
+    <t>DNA methyltransferase (DNMT) inhibitors have been reported to be effective in AML and MDS patients with DNMT3A missense mutations at R882 (PMIDs:22124213, 24138309, 24045501). DNMT inhibitors, including the agents azacitidine (Vidaza) and decitabine (Dacogen), have been FDA approved in myelodysplastic syndrome, and may offer therapeutic strategies in patients with certain mutations in DNMT3A (PMIDs: 22124213, 24699305). Other DNMT inhibitors are also in preclinical and clinical development (25567350, 24908436, 26220519).</t>
+  </si>
+  <si>
+    <t>DNMT3A mutation has been associated with progression from myelodysplastic syndrome (MDS) to AML; preclinical studies have reported that Loss of DNMT3A, in combination with either Ras activation or FLT3-ITD alteration, leads to the development of AML-like disease in mice (PMIDs:25801914, 21415852, 27016502).</t>
+  </si>
+  <si>
+    <t>FLT3-ITD mutations reportedly are the most common alteration in AML (20-35% of cases) occurring more frequently in AML with a normal karyotype (PMIDs: 26234722, 25912052, 12036858, 17965322, 16266897, 12400596).</t>
+  </si>
+  <si>
+    <t>FLT3-ITD mutations in AML have been associated with poor prognosis and an increased risk of relapse following allogeneic hematopoietic stem cell transplantation (allo-HSCT) (PMIDs: 24801015, 26234722, 26191952, 25912052, 21242187).</t>
   </si>
   <si>
     <t xml:space="preserve">The NCCN Guidelines (v.1.2015) place AML patients harboring ITD alterations in FLT3, but with an otherwise normal karyotype, in the category of poor risk and state that these patients should be considered for appropriate clinical trials or early allogeneic hematopoietic cell transplantation (HCT). The NCCN Guidelines (v.1.2015) additionally state that sorafenib may be considered as a therapeutic option in the relapse setting for poor risk AML patients, depending on the physician's evaluation of the individual patient. </t>
   </si>
   <si>
-    <t xml:space="preserve">Activating alterations in FLT3 may predict sensitivity to tyrosine kinase inhibitors. Sunitinib, sorafenib, cabozantinib, and ponatinib are inhibitors that target multiple kinases, including Flt3, and have been approved by the FDA for use in some indications; these and other inhibitors are under clinical investigation in several cancer types (PMIDs: 20212254, 2006; 16990784, 27060207). Second generation Flt3 inhibitors with greater specificity for Flt3, such as quizartinib (AC-220), crenolanib (CP-868596), and PLX3397, are also in clinical development (PMIDs: 24883179, 24002496, 24227820).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Several studies have reported transformation from MPD to AML when FLT3 mutations are combined with other alterations, including Hedgehog signaling, TET2 mutations, and loss of Cbl function (PMIDs: 26062848, 25873173, 25534201).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPM1 mutations are reported in 27-35% of AML samples and in 46-53% of cytogenetically normal AML (CN-AML) samples  (PMIDs: 16455956, 18450602, 16051734, 16076867, 16109776, 2417203).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPM1 mutation or cytoplasmic Npm1 expression in AML patients has been associated with increased response and complete remission rates following induction chemotherapy (PMIDs: 16076867, 18450602, 16455956, 15659725, 15994285).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The NCCN Guidelines (v.1.2015) state that molecular analyses to detect NPM1 alteration may be useful for risk assessment, prognostication, and treatment when evaluating patients for acute myelocytic leukemia (AML).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are currently no therapeutic approaches targeting alterations in NPM1 or changes in Npm1 protein expression,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPM1 mutations have been reported more frequently in cytogenetically normal AML (CN-AML) and often occur in combination with FLT3, IDH1/2, NRAS, and DMNT3A mutations (PMIDs: 16076867, 16455956, 16109776, 22417203, 27276561,27285584). NPM1 mutations in the absence of FLT3-ITD have been associated with favorable outcomes in AML, especially in cytogenetically normal AML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUNX1 mutations have been reported in 5-13% of AML samples (PMIDs: 21343560, 19808697, 10068652, 27137476).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AML patients with RUNX1 mutations frequently demonstrate reduced complete remission rate, poorer relapse-free survival, and poorer overall survival (PMIDs 21343560, 21148331, 19808697, 22689681, 27137476). RUNX1 mutations were also associated with resistance to chemotherapy in AML (PMID: 21343560).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are no therapies directly targeting inactivating alterations in RUNX1. Preclinical studies suggest that RUNX1 mutation may lead to the epigenetic repression of genes involved in apoptosis; treatment with DNA methyltransferase (DNMT) inhibitors may relieve this inhibition (PMID: 22289496, 22110197). DNMT inhibitors are under investigation in clinical trials.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TET2 mutations have been reported in 8-27% of AML cases, including cytogenetically normal AML (CN-AML) and secondary AML (PMIDs: 19474426, 20068184, 21343549, 24859829, 22116554, 24898826, 24994606, 26045292, 22430270, 22912701).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TET2 splice site mutations have been reported in patients with various myeloid malignancies (PMIDs: 21273266, 21508122, 20693430, 2323480). However, as this alteration occurs outside the conserved splice acceptor site and has not been reported (COSMIC, Feb 2017) or functionally characterized (PubMed, Feb 2017), its effect on protein function is unknown.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are currently no approved therapies available to directly address TET2 mutation or loss of functional Tet2 protein. However, the use of DNA methyltransferase (DNMT) inhibitors is under investigation in multiple tumor types to address inactivating alterations in TET2 (PMIDs: 22289496, 9988266,21494260). As the alteration reported here has not been functionally characterized, the relevance of any available therapeutic approaches is unknown.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TET2 mutations have also been associated with secondary leukemia, and either alone or combination with other mutations, including in FLT3, have been reported to play a role in the progression of MDS to AML (PMIDs: 24778653, 20068184, 19483684, 25873173, 25200248, 23996483).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2AF1 mutations were detected in 2.5-8.3% of AML patients (26812887,25550361, 25487075, 23029227).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2AF1 alterations, particularly those at codon S34, reportedly associated with the transformation from MDS to AML (PMIDs: 24498085, 22980975, 22158538, 23861105, 25267526, 24523246). U2AF1 mutations in AML have been associated with poor prognosis, including lower rates of complete remission and shorter overall and disease-free survival(Qian et al., 2012; 23029227, Ohgami et al., 2015; 25412851, Hamilton et al., 2016; 26799334, Hou et al., 2016; 26812887).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While there are no therapies targeting alterations in U2AF1, splicesosome modulators, such as H3B-8800, are currently being investigated in patients harboring mutations in splicing factors (PMID: 27639445).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT1 mutations occur more frequently in cytogenetically normal AML (7-13% of cases)(PMIDs: 18591546, 20368469, 24074521, 26725263).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT1 mRNA transcript levels are reportedly elevated in the blood and bone marrow of leukemia patients and can serve for minimal residual disease monitoring (PMIDs: 19427034, 23067220, 529849).WT1 mRNA expression has been positively associated with relapse and poor overall survival in  AML (Gianfaldoni et al., 2010; 20107153, Shimada et al.,  22915059, 23294252, 23542687, 20368469, 26597595, 25572170).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are no approved targeted therapies for WT1 mutations or expression. Various types of immunotherapy that specifically target the Wt1-expressing cells are currently in development (PMID 22291091). Wt1 vaccines are in clinical trials for Wt1-expressing hematologic and solid tumor cancers, including renal cell carcinoma, biliary tract cancers, and non-small cell lung cancer (PMIDs: 20395243, ; 22273718, 25550602, 23245331).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClinicalRelevance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guidelines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therapeutic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnostic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prognostic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactions</t>
+    <t>Activating alterations in FLT3 may predict sensitivity to tyrosine kinase inhibitors. Sunitinib, sorafenib, cabozantinib, and ponatinib are inhibitors that target multiple kinases, including Flt3, and have been approved by the FDA for use in some indications; these and other inhibitors are under clinical investigation in several cancer types (PMIDs: 20212254, 2006; 16990784, 27060207). Second generation Flt3 inhibitors with greater specificity for Flt3, such as quizartinib (AC-220), crenolanib (CP-868596), and PLX3397, are also in clinical development (PMIDs: 24883179, 24002496, 24227820).</t>
+  </si>
+  <si>
+    <t>Several studies have reported transformation from MPD to AML when FLT3 mutations are combined with other alterations, including Hedgehog signaling, TET2 mutations, and loss of Cbl function (PMIDs: 26062848, 25873173, 25534201).</t>
+  </si>
+  <si>
+    <t>NPM1 mutations are reported in 27-35% of AML samples and in 46-53% of cytogenetically normal AML (CN-AML) samples  (PMIDs: 16455956, 18450602, 16051734, 16076867, 16109776, 2417203).</t>
+  </si>
+  <si>
+    <t>NPM1 mutation or cytoplasmic Npm1 expression in AML patients has been associated with increased response and complete remission rates following induction chemotherapy (PMIDs: 16076867, 18450602, 16455956, 15659725, 15994285).</t>
+  </si>
+  <si>
+    <t>The NCCN Guidelines (v.1.2015) state that molecular analyses to detect NPM1 alteration may be useful for risk assessment, prognostication, and treatment when evaluating patients for acute myelocytic leukemia (AML).</t>
+  </si>
+  <si>
+    <t>There are currently no therapeutic approaches targeting alterations in NPM1 or changes in Npm1 protein expression,</t>
+  </si>
+  <si>
+    <t>NPM1 mutations have been reported more frequently in cytogenetically normal AML (CN-AML) and often occur in combination with FLT3, IDH1/2, NRAS, and DMNT3A mutations (PMIDs: 16076867, 16455956, 16109776, 22417203, 27276561,27285584). NPM1 mutations in the absence of FLT3-ITD have been associated with favorable outcomes in AML, especially in cytogenetically normal AML</t>
+  </si>
+  <si>
+    <t>RUNX1 mutations have been reported in 5-13% of AML samples (PMIDs: 21343560, 19808697, 10068652, 27137476).</t>
+  </si>
+  <si>
+    <t>AML patients with RUNX1 mutations frequently demonstrate reduced complete remission rate, poorer relapse-free survival, and poorer overall survival (PMIDs 21343560, 21148331, 19808697, 22689681, 27137476). RUNX1 mutations were also associated with resistance to chemotherapy in AML (PMID: 21343560).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>There are no therapies directly targeting inactivating alterations in RUNX1. Preclinical studies suggest that RUNX1 mutation may lead to the epigenetic repression of genes involved in apoptosis; treatment with DNA methyltransferase (DNMT) inhibitors may relieve this inhibition (PMID: 22289496, 22110197). DNMT inhibitors are under investigation in clinical trials.</t>
+  </si>
+  <si>
+    <t>TET2 mutations have been reported in 8-27% of AML cases, including cytogenetically normal AML (CN-AML) and secondary AML (PMIDs: 19474426, 20068184, 21343549, 24859829, 22116554, 24898826, 24994606, 26045292, 22430270, 22912701).</t>
+  </si>
+  <si>
+    <t>TET2 splice site mutations have been reported in patients with various myeloid malignancies (PMIDs: 21273266, 21508122, 20693430, 2323480). However, as this alteration occurs outside the conserved splice acceptor site and has not been reported (COSMIC, Feb 2017) or functionally characterized (PubMed, Feb 2017), its effect on protein function is unknown.</t>
+  </si>
+  <si>
+    <t>There are currently no approved therapies available to directly address TET2 mutation or loss of functional Tet2 protein. However, the use of DNA methyltransferase (DNMT) inhibitors is under investigation in multiple tumor types to address inactivating alterations in TET2 (PMIDs: 22289496, 9988266,21494260). As the alteration reported here has not been functionally characterized, the relevance of any available therapeutic approaches is unknown.</t>
+  </si>
+  <si>
+    <t>TET2 mutations have also been associated with secondary leukemia, and either alone or combination with other mutations, including in FLT3, have been reported to play a role in the progression of MDS to AML (PMIDs: 24778653, 20068184, 19483684, 25873173, 25200248, 23996483).</t>
+  </si>
+  <si>
+    <t>U2AF1 mutations were detected in 2.5-8.3% of AML patients (26812887,25550361, 25487075, 23029227).</t>
+  </si>
+  <si>
+    <t>U2AF1 alterations, particularly those at codon S34, reportedly associated with the transformation from MDS to AML (PMIDs: 24498085, 22980975, 22158538, 23861105, 25267526, 24523246). U2AF1 mutations in AML have been associated with poor prognosis, including lower rates of complete remission and shorter overall and disease-free survival(Qian et al., 2012; 23029227, Ohgami et al., 2015; 25412851, Hamilton et al., 2016; 26799334, Hou et al., 2016; 26812887).</t>
+  </si>
+  <si>
+    <t>While there are no therapies targeting alterations in U2AF1, splicesosome modulators, such as H3B-8800, are currently being investigated in patients harboring mutations in splicing factors (PMID: 27639445).</t>
+  </si>
+  <si>
+    <t>WT1 mutations occur more frequently in cytogenetically normal AML (7-13% of cases)(PMIDs: 18591546, 20368469, 24074521, 26725263).</t>
+  </si>
+  <si>
+    <t>WT1 mRNA transcript levels are reportedly elevated in the blood and bone marrow of leukemia patients and can serve for minimal residual disease monitoring (PMIDs: 19427034, 23067220, 529849).WT1 mRNA expression has been positively associated with relapse and poor overall survival in  AML (Gianfaldoni et al., 2010; 20107153, Shimada et al.,  22915059, 23294252, 23542687, 20368469, 26597595, 25572170).</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>There are no approved targeted therapies for WT1 mutations or expression. Various types of immunotherapy that specifically target the Wt1-expressing cells are currently in development (PMID 22291091). Wt1 vaccines are in clinical trials for Wt1-expressing hematologic and solid tumor cancers, including renal cell carcinoma, biliary tract cancers, and non-small cell lung cancer (PMIDs: 20395243, ; 22273718, 25550602, 23245331).</t>
+  </si>
+  <si>
+    <t>Incidence</t>
+  </si>
+  <si>
+    <t>ClinicalRelevance</t>
+  </si>
+  <si>
+    <t>Guidelines</t>
+  </si>
+  <si>
+    <t>Therapeutic</t>
+  </si>
+  <si>
+    <t>Diagnostic</t>
+  </si>
+  <si>
+    <t>Prognostic</t>
+  </si>
+  <si>
+    <t>Interactions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -776,7 +757,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -784,1048 +765,1293 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="14.3979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="1" max="2" width="11.5703125"/>
+    <col min="3" max="3" width="13.5703125"/>
+    <col min="4" max="5" width="14.42578125"/>
+    <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>136</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>146</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>148</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>152</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>154</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>156</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>117</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>158</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>117</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>160</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>161</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>163</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>117</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>165</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>167</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>117</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>169</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>117</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>171</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>173</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>117</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>175</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" t="s">
         <v>176</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>117</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>178</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>179</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>117</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>181</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" t="s">
         <v>182</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>184</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -1833,310 +2059,305 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!A1</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>GeneDiseaseTemplate!A1</f>
         <v>GeneSymbol</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!B1</f>
+      <c r="B1" t="str">
+        <f>GeneDiseaseTemplate!B1</f>
         <v>Incidence</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!C1</f>
+      <c r="C1" t="str">
+        <f>GeneDiseaseTemplate!C1</f>
         <v>ClinicalRelevance</v>
       </c>
-      <c r="D1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!D1</f>
+      <c r="D1" t="str">
+        <f>GeneDiseaseTemplate!D1</f>
         <v>Guidelines</v>
       </c>
-      <c r="E1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!E1</f>
+      <c r="E1" t="str">
+        <f>GeneDiseaseTemplate!E1</f>
         <v>Therapeutic</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!F1</f>
+      <c r="F1" t="str">
+        <f>GeneDiseaseTemplate!F1</f>
         <v>Diagnostic</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!G1</f>
+      <c r="G1" t="str">
+        <f>GeneDiseaseTemplate!G1</f>
         <v>Prognostic</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!H1</f>
+      <c r="H1" t="str">
+        <f>GeneDiseaseTemplate!H1</f>
         <v>Interactions</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -2144,310 +2365,305 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!A1</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>GeneDiseaseTemplate!A1</f>
         <v>GeneSymbol</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!B1</f>
+      <c r="B1" t="str">
+        <f>GeneDiseaseTemplate!B1</f>
         <v>Incidence</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!C1</f>
+      <c r="C1" t="str">
+        <f>GeneDiseaseTemplate!C1</f>
         <v>ClinicalRelevance</v>
       </c>
-      <c r="D1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!D1</f>
+      <c r="D1" t="str">
+        <f>GeneDiseaseTemplate!D1</f>
         <v>Guidelines</v>
       </c>
-      <c r="E1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!E1</f>
+      <c r="E1" t="str">
+        <f>GeneDiseaseTemplate!E1</f>
         <v>Therapeutic</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!F1</f>
+      <c r="F1" t="str">
+        <f>GeneDiseaseTemplate!F1</f>
         <v>Diagnostic</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!G1</f>
+      <c r="G1" t="str">
+        <f>GeneDiseaseTemplate!G1</f>
         <v>Prognostic</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!H1</f>
+      <c r="H1" t="str">
+        <f>GeneDiseaseTemplate!H1</f>
         <v>Interactions</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -2455,310 +2671,305 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!A1</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>GeneDiseaseTemplate!A1</f>
         <v>GeneSymbol</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!B1</f>
+      <c r="B1" t="str">
+        <f>GeneDiseaseTemplate!B1</f>
         <v>Incidence</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!C1</f>
+      <c r="C1" t="str">
+        <f>GeneDiseaseTemplate!C1</f>
         <v>ClinicalRelevance</v>
       </c>
-      <c r="D1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!D1</f>
+      <c r="D1" t="str">
+        <f>GeneDiseaseTemplate!D1</f>
         <v>Guidelines</v>
       </c>
-      <c r="E1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!E1</f>
+      <c r="E1" t="str">
+        <f>GeneDiseaseTemplate!E1</f>
         <v>Therapeutic</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!F1</f>
+      <c r="F1" t="str">
+        <f>GeneDiseaseTemplate!F1</f>
         <v>Diagnostic</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!G1</f>
+      <c r="G1" t="str">
+        <f>GeneDiseaseTemplate!G1</f>
         <v>Prognostic</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!H1</f>
+      <c r="H1" t="str">
+        <f>GeneDiseaseTemplate!H1</f>
         <v>Interactions</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -2766,310 +2977,305 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!A1</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>GeneDiseaseTemplate!A1</f>
         <v>GeneSymbol</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!B1</f>
+      <c r="B1" t="str">
+        <f>GeneDiseaseTemplate!B1</f>
         <v>Incidence</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!C1</f>
+      <c r="C1" t="str">
+        <f>GeneDiseaseTemplate!C1</f>
         <v>ClinicalRelevance</v>
       </c>
-      <c r="D1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!D1</f>
+      <c r="D1" t="str">
+        <f>GeneDiseaseTemplate!D1</f>
         <v>Guidelines</v>
       </c>
-      <c r="E1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!E1</f>
+      <c r="E1" t="str">
+        <f>GeneDiseaseTemplate!E1</f>
         <v>Therapeutic</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!F1</f>
+      <c r="F1" t="str">
+        <f>GeneDiseaseTemplate!F1</f>
         <v>Diagnostic</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!G1</f>
+      <c r="G1" t="str">
+        <f>GeneDiseaseTemplate!G1</f>
         <v>Prognostic</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!H1</f>
+      <c r="H1" t="str">
+        <f>GeneDiseaseTemplate!H1</f>
         <v>Interactions</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -3077,310 +3283,305 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!A1</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>GeneDiseaseTemplate!A1</f>
         <v>GeneSymbol</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!B1</f>
+      <c r="B1" t="str">
+        <f>GeneDiseaseTemplate!B1</f>
         <v>Incidence</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!C1</f>
+      <c r="C1" t="str">
+        <f>GeneDiseaseTemplate!C1</f>
         <v>ClinicalRelevance</v>
       </c>
-      <c r="D1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!D1</f>
+      <c r="D1" t="str">
+        <f>GeneDiseaseTemplate!D1</f>
         <v>Guidelines</v>
       </c>
-      <c r="E1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!E1</f>
+      <c r="E1" t="str">
+        <f>GeneDiseaseTemplate!E1</f>
         <v>Therapeutic</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!F1</f>
+      <c r="F1" t="str">
+        <f>GeneDiseaseTemplate!F1</f>
         <v>Diagnostic</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!G1</f>
+      <c r="G1" t="str">
+        <f>GeneDiseaseTemplate!G1</f>
         <v>Prognostic</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!H1</f>
+      <c r="H1" t="str">
+        <f>GeneDiseaseTemplate!H1</f>
         <v>Interactions</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -3388,310 +3589,305 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!A1</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>GeneDiseaseTemplate!A1</f>
         <v>GeneSymbol</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!B1</f>
+      <c r="B1" t="str">
+        <f>GeneDiseaseTemplate!B1</f>
         <v>Incidence</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!C1</f>
+      <c r="C1" t="str">
+        <f>GeneDiseaseTemplate!C1</f>
         <v>ClinicalRelevance</v>
       </c>
-      <c r="D1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!D1</f>
+      <c r="D1" t="str">
+        <f>GeneDiseaseTemplate!D1</f>
         <v>Guidelines</v>
       </c>
-      <c r="E1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!E1</f>
+      <c r="E1" t="str">
+        <f>GeneDiseaseTemplate!E1</f>
         <v>Therapeutic</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!F1</f>
+      <c r="F1" t="str">
+        <f>GeneDiseaseTemplate!F1</f>
         <v>Diagnostic</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!G1</f>
+      <c r="G1" t="str">
+        <f>GeneDiseaseTemplate!G1</f>
         <v>Prognostic</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!H1</f>
+      <c r="H1" t="str">
+        <f>GeneDiseaseTemplate!H1</f>
         <v>Interactions</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -3699,52 +3895,47 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>225</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -3752,305 +3943,300 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!A1</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>GeneDiseaseTemplate!A1</f>
         <v>GeneSymbol</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!B1</f>
+      <c r="B1" t="str">
+        <f>GeneDiseaseTemplate!B1</f>
         <v>Incidence</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!C1</f>
+      <c r="C1" t="str">
+        <f>GeneDiseaseTemplate!C1</f>
         <v>ClinicalRelevance</v>
       </c>
-      <c r="D1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!D1</f>
+      <c r="D1" t="str">
+        <f>GeneDiseaseTemplate!D1</f>
         <v>Guidelines</v>
       </c>
-      <c r="E1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!E1</f>
+      <c r="E1" t="str">
+        <f>GeneDiseaseTemplate!E1</f>
         <v>Therapeutic</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!F1</f>
+      <c r="F1" t="str">
+        <f>GeneDiseaseTemplate!F1</f>
         <v>Diagnostic</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!G1</f>
+      <c r="G1" t="str">
+        <f>GeneDiseaseTemplate!G1</f>
         <v>Prognostic</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!H1</f>
+      <c r="H1" t="str">
+        <f>GeneDiseaseTemplate!H1</f>
         <v>Interactions</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -4058,95 +4244,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="1" max="2" width="11.5703125"/>
+    <col min="3" max="3" width="16"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="14.28515625"/>
+    <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!A1</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>GeneDiseaseTemplate!A1</f>
         <v>GeneSymbol</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!B1</f>
+      <c r="B1" t="str">
+        <f>GeneDiseaseTemplate!B1</f>
         <v>Incidence</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!C1</f>
+      <c r="C1" t="str">
+        <f>GeneDiseaseTemplate!C1</f>
         <v>ClinicalRelevance</v>
       </c>
-      <c r="D1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!D1</f>
+      <c r="D1" t="str">
+        <f>GeneDiseaseTemplate!D1</f>
         <v>Guidelines</v>
       </c>
-      <c r="E1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!E1</f>
+      <c r="E1" t="str">
+        <f>GeneDiseaseTemplate!E1</f>
         <v>Therapeutic</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!F1</f>
+      <c r="F1" t="str">
+        <f>GeneDiseaseTemplate!F1</f>
         <v>Diagnostic</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!G1</f>
+      <c r="G1" t="str">
+        <f>GeneDiseaseTemplate!G1</f>
         <v>Prognostic</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!H1</f>
+      <c r="H1" t="str">
+        <f>GeneDiseaseTemplate!H1</f>
         <v>Interactions</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>130</v>
       </c>
@@ -4163,309 +4346,307 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>135</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>191</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>197</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>200</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>201</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>202</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>160</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>205</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>206</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>175</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>209</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>206</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" t="s">
         <v>210</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>178</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>206</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>181</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>216</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>217</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -4473,305 +4654,300 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!A1</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>GeneDiseaseTemplate!A1</f>
         <v>GeneSymbol</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!B1</f>
+      <c r="B1" t="str">
+        <f>GeneDiseaseTemplate!B1</f>
         <v>Incidence</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!C1</f>
+      <c r="C1" t="str">
+        <f>GeneDiseaseTemplate!C1</f>
         <v>ClinicalRelevance</v>
       </c>
-      <c r="D1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!D1</f>
+      <c r="D1" t="str">
+        <f>GeneDiseaseTemplate!D1</f>
         <v>Guidelines</v>
       </c>
-      <c r="E1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!E1</f>
+      <c r="E1" t="str">
+        <f>GeneDiseaseTemplate!E1</f>
         <v>Therapeutic</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!F1</f>
+      <c r="F1" t="str">
+        <f>GeneDiseaseTemplate!F1</f>
         <v>Diagnostic</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!G1</f>
+      <c r="G1" t="str">
+        <f>GeneDiseaseTemplate!G1</f>
         <v>Prognostic</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!H1</f>
+      <c r="H1" t="str">
+        <f>GeneDiseaseTemplate!H1</f>
         <v>Interactions</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -4779,305 +4955,300 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!A1</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>GeneDiseaseTemplate!A1</f>
         <v>GeneSymbol</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!B1</f>
+      <c r="B1" t="str">
+        <f>GeneDiseaseTemplate!B1</f>
         <v>Incidence</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!C1</f>
+      <c r="C1" t="str">
+        <f>GeneDiseaseTemplate!C1</f>
         <v>ClinicalRelevance</v>
       </c>
-      <c r="D1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!D1</f>
+      <c r="D1" t="str">
+        <f>GeneDiseaseTemplate!D1</f>
         <v>Guidelines</v>
       </c>
-      <c r="E1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!E1</f>
+      <c r="E1" t="str">
+        <f>GeneDiseaseTemplate!E1</f>
         <v>Therapeutic</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!F1</f>
+      <c r="F1" t="str">
+        <f>GeneDiseaseTemplate!F1</f>
         <v>Diagnostic</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!G1</f>
+      <c r="G1" t="str">
+        <f>GeneDiseaseTemplate!G1</f>
         <v>Prognostic</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!H1</f>
+      <c r="H1" t="str">
+        <f>GeneDiseaseTemplate!H1</f>
         <v>Interactions</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -5085,310 +5256,305 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!A1</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>GeneDiseaseTemplate!A1</f>
         <v>GeneSymbol</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!B1</f>
+      <c r="B1" t="str">
+        <f>GeneDiseaseTemplate!B1</f>
         <v>Incidence</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!C1</f>
+      <c r="C1" t="str">
+        <f>GeneDiseaseTemplate!C1</f>
         <v>ClinicalRelevance</v>
       </c>
-      <c r="D1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!D1</f>
+      <c r="D1" t="str">
+        <f>GeneDiseaseTemplate!D1</f>
         <v>Guidelines</v>
       </c>
-      <c r="E1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!E1</f>
+      <c r="E1" t="str">
+        <f>GeneDiseaseTemplate!E1</f>
         <v>Therapeutic</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!F1</f>
+      <c r="F1" t="str">
+        <f>GeneDiseaseTemplate!F1</f>
         <v>Diagnostic</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!G1</f>
+      <c r="G1" t="str">
+        <f>GeneDiseaseTemplate!G1</f>
         <v>Prognostic</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!H1</f>
+      <c r="H1" t="str">
+        <f>GeneDiseaseTemplate!H1</f>
         <v>Interactions</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -5396,310 +5562,305 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!A1</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>GeneDiseaseTemplate!A1</f>
         <v>GeneSymbol</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!B1</f>
+      <c r="B1" t="str">
+        <f>GeneDiseaseTemplate!B1</f>
         <v>Incidence</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!C1</f>
+      <c r="C1" t="str">
+        <f>GeneDiseaseTemplate!C1</f>
         <v>ClinicalRelevance</v>
       </c>
-      <c r="D1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!D1</f>
+      <c r="D1" t="str">
+        <f>GeneDiseaseTemplate!D1</f>
         <v>Guidelines</v>
       </c>
-      <c r="E1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!E1</f>
+      <c r="E1" t="str">
+        <f>GeneDiseaseTemplate!E1</f>
         <v>Therapeutic</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!F1</f>
+      <c r="F1" t="str">
+        <f>GeneDiseaseTemplate!F1</f>
         <v>Diagnostic</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!G1</f>
+      <c r="G1" t="str">
+        <f>GeneDiseaseTemplate!G1</f>
         <v>Prognostic</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!H1</f>
+      <c r="H1" t="str">
+        <f>GeneDiseaseTemplate!H1</f>
         <v>Interactions</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -5707,310 +5868,305 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!A1</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>GeneDiseaseTemplate!A1</f>
         <v>GeneSymbol</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!B1</f>
+      <c r="B1" t="str">
+        <f>GeneDiseaseTemplate!B1</f>
         <v>Incidence</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!C1</f>
+      <c r="C1" t="str">
+        <f>GeneDiseaseTemplate!C1</f>
         <v>ClinicalRelevance</v>
       </c>
-      <c r="D1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!D1</f>
+      <c r="D1" t="str">
+        <f>GeneDiseaseTemplate!D1</f>
         <v>Guidelines</v>
       </c>
-      <c r="E1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!E1</f>
+      <c r="E1" t="str">
+        <f>GeneDiseaseTemplate!E1</f>
         <v>Therapeutic</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!F1</f>
+      <c r="F1" t="str">
+        <f>GeneDiseaseTemplate!F1</f>
         <v>Diagnostic</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!G1</f>
+      <c r="G1" t="str">
+        <f>GeneDiseaseTemplate!G1</f>
         <v>Prognostic</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!H1</f>
+      <c r="H1" t="str">
+        <f>GeneDiseaseTemplate!H1</f>
         <v>Interactions</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -6018,310 +6174,305 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!A1</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>GeneDiseaseTemplate!A1</f>
         <v>GeneSymbol</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!B1</f>
+      <c r="B1" t="str">
+        <f>GeneDiseaseTemplate!B1</f>
         <v>Incidence</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!C1</f>
+      <c r="C1" t="str">
+        <f>GeneDiseaseTemplate!C1</f>
         <v>ClinicalRelevance</v>
       </c>
-      <c r="D1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!D1</f>
+      <c r="D1" t="str">
+        <f>GeneDiseaseTemplate!D1</f>
         <v>Guidelines</v>
       </c>
-      <c r="E1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!E1</f>
+      <c r="E1" t="str">
+        <f>GeneDiseaseTemplate!E1</f>
         <v>Therapeutic</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!F1</f>
+      <c r="F1" t="str">
+        <f>GeneDiseaseTemplate!F1</f>
         <v>Diagnostic</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!G1</f>
+      <c r="G1" t="str">
+        <f>GeneDiseaseTemplate!G1</f>
         <v>Prognostic</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">GeneDiseaseTemplate!H1</f>
+      <c r="H1" t="str">
+        <f>GeneDiseaseTemplate!H1</f>
         <v>Interactions</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/data/GeneKB01.xlsx
+++ b/data/GeneKB01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="561" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gene" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="247">
   <si>
     <t>Panel</t>
   </si>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>Interactions</t>
+  </si>
+  <si>
+    <t>testrow</t>
   </si>
 </sst>
 </file>
@@ -3136,10 +3139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3208,313 +3211,333 @@
         <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>213</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>214</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>217</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>218</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>219</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>222</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>223</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>224</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H33" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>165</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>227</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>228</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>193</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>231</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>228</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>232</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>198</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C48" t="s">
-        <v>235</v>
-      </c>
-      <c r="D48" t="s">
-        <v>228</v>
-      </c>
-      <c r="E48" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>203</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>238</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>239</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3817,7 +3840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
